--- a/data/Draft 70.xlsx
+++ b/data/Draft 70.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjx3FlwKMT/lx37NGCrLT8qUrqIMQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhTbBsF0wcL8mfPB8goSw449PUCXQ=="/>
     </ext>
   </extLst>
 </workbook>
@@ -135,7 +135,7 @@
     <t>Ravages of War</t>
   </si>
   <si>
-    <t>Lurrus of the Dream-Den</t>
+    <t>Lurrus of the Dream-Den (Companion)</t>
   </si>
 </sst>
 </file>
@@ -185,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -196,18 +196,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -488,15 +485,15 @@
       <c r="F3" s="4">
         <v>0.0</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>2.0</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>4.0</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -504,7 +501,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>1.0</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -512,7 +509,7 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>1.0</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -520,7 +517,7 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>1.0</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -528,7 +525,7 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>1.0</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -536,7 +533,7 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>1.0</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -544,7 +541,7 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>1.0</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -552,7 +549,7 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>1.0</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -560,7 +557,7 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>1.0</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -568,7 +565,7 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>1.0</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -576,7 +573,7 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>1.0</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -584,7 +581,7 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>1.0</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -592,7 +589,7 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>1.0</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -600,7 +597,7 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>1.0</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -608,7 +605,7 @@
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="7">
+      <c r="A18" s="5">
         <v>1.0</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -616,7 +613,7 @@
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>1.0</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -624,7 +621,7 @@
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>1.0</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -632,7 +629,7 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="7">
+      <c r="A21" s="5">
         <v>1.0</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -640,7 +637,7 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="7">
+      <c r="A22" s="5">
         <v>1.0</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -648,7 +645,7 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="7">
+      <c r="A23" s="5">
         <v>1.0</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -656,7 +653,7 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>1.0</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -664,7 +661,7 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="7">
+      <c r="A25" s="5">
         <v>1.0</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -672,7 +669,7 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="7">
+      <c r="A26" s="5">
         <v>1.0</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -680,7 +677,7 @@
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="7">
+      <c r="A27" s="5">
         <v>1.0</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -688,7 +685,7 @@
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="7">
+      <c r="A28" s="5">
         <v>1.0</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -696,7 +693,7 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="7">
+      <c r="A29" s="5">
         <v>1.0</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -704,7 +701,7 @@
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="7">
+      <c r="A30" s="5">
         <v>1.0</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -712,7 +709,7 @@
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="7">
+      <c r="A31" s="5">
         <v>1.0</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -720,7 +717,7 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="7">
+      <c r="A32" s="5">
         <v>1.0</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -728,7 +725,7 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="7">
+      <c r="A33" s="5">
         <v>1.0</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -736,7 +733,7 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>1.0</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -744,20 +741,20 @@
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
     </row>
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1"/>
